--- a/Base/Backlog_6.xlsx
+++ b/Base/Backlog_6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2114AC-2063-442A-8B5E-17DC0361E590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9461201A-016D-4BB8-98CB-AF87ABE26183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="SPN" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ITI!$A$1:$I$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SPN!$A$1:$I$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SPN!$A$1:$I$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="30">
   <si>
     <t>Backlog</t>
   </si>
@@ -86,6 +86,51 @@
   </si>
   <si>
     <t>Semana 06</t>
+  </si>
+  <si>
+    <t>Pendente</t>
+  </si>
+  <si>
+    <t>Maria Eduarda</t>
+  </si>
+  <si>
+    <t>Jose Acevedo</t>
+  </si>
+  <si>
+    <t>Gabriel Lopez</t>
+  </si>
+  <si>
+    <t>Diogo Barbin</t>
+  </si>
+  <si>
+    <t>Mara Neves</t>
+  </si>
+  <si>
+    <t>Luan Pierry</t>
+  </si>
+  <si>
+    <t>Higor Cruz</t>
+  </si>
+  <si>
+    <t>Alana Neris</t>
+  </si>
+  <si>
+    <t>Gustavo Linpiski</t>
+  </si>
+  <si>
+    <t>Edson Campos</t>
+  </si>
+  <si>
+    <t>Lourival Moizés</t>
+  </si>
+  <si>
+    <t>Patrick Doyle</t>
+  </si>
+  <si>
+    <t>Erick Silva</t>
+  </si>
+  <si>
+    <t>Antônio Lucas</t>
   </si>
 </sst>
 </file>
@@ -157,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -199,14 +244,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -523,16 +573,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:H26"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" style="9" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" style="9" customWidth="1"/>
     <col min="5" max="5" width="19.140625" style="9" customWidth="1"/>
@@ -572,7 +622,7 @@
       <c r="I1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>11</v>
       </c>
     </row>
@@ -580,7 +630,9 @@
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
       <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
@@ -590,12 +642,18 @@
       <c r="E2" s="12">
         <v>45611</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
+      <c r="F2" s="6">
+        <v>311542</v>
+      </c>
+      <c r="G2" s="7">
+        <v>45566</v>
+      </c>
       <c r="H2" s="12">
         <v>45607</v>
       </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" s="9" t="s">
         <v>12</v>
       </c>
@@ -604,7 +662,9 @@
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
       <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
@@ -614,12 +674,18 @@
       <c r="E3" s="12">
         <v>45611</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
+      <c r="F3" s="6">
+        <v>313075</v>
+      </c>
+      <c r="G3" s="7">
+        <v>45597</v>
+      </c>
       <c r="H3" s="12">
         <v>45607</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J3" s="9" t="s">
         <v>12</v>
       </c>
@@ -628,7 +694,9 @@
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
       <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
@@ -638,12 +706,18 @@
       <c r="E4" s="12">
         <v>45611</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
+      <c r="F4" s="6">
+        <v>312013</v>
+      </c>
+      <c r="G4" s="7">
+        <v>45566</v>
+      </c>
       <c r="H4" s="12">
         <v>45607</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J4" s="9" t="s">
         <v>12</v>
       </c>
@@ -652,7 +726,9 @@
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
       <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
@@ -662,12 +738,18 @@
       <c r="E5" s="12">
         <v>45611</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
+      <c r="F5" s="6">
+        <v>311929</v>
+      </c>
+      <c r="G5" s="7">
+        <v>45566</v>
+      </c>
       <c r="H5" s="12">
         <v>45607</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J5" s="9" t="s">
         <v>12</v>
       </c>
@@ -676,7 +758,9 @@
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
       <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
@@ -686,12 +770,18 @@
       <c r="E6" s="12">
         <v>45611</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
+      <c r="F6" s="6">
+        <v>313177</v>
+      </c>
+      <c r="G6" s="7">
+        <v>45597</v>
+      </c>
       <c r="H6" s="12">
         <v>45607</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J6" s="9" t="s">
         <v>12</v>
       </c>
@@ -700,7 +790,9 @@
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
       <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
@@ -710,12 +802,18 @@
       <c r="E7" s="12">
         <v>45611</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
+      <c r="F7" s="6">
+        <v>312610</v>
+      </c>
+      <c r="G7" s="7">
+        <v>45597</v>
+      </c>
       <c r="H7" s="12">
         <v>45607</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J7" s="9" t="s">
         <v>12</v>
       </c>
@@ -724,7 +822,9 @@
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
@@ -734,12 +834,18 @@
       <c r="E8" s="12">
         <v>45611</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="6">
+        <v>312803</v>
+      </c>
+      <c r="G8" s="7">
+        <v>45597</v>
+      </c>
       <c r="H8" s="12">
         <v>45607</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J8" s="9" t="s">
         <v>12</v>
       </c>
@@ -748,7 +854,9 @@
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
       <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
@@ -758,12 +866,18 @@
       <c r="E9" s="12">
         <v>45611</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="6">
+        <v>311999</v>
+      </c>
+      <c r="G9" s="7">
+        <v>45566</v>
+      </c>
       <c r="H9" s="12">
         <v>45607</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J9" s="9" t="s">
         <v>12</v>
       </c>
@@ -772,7 +886,9 @@
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
       <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
@@ -782,12 +898,18 @@
       <c r="E10" s="12">
         <v>45611</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
+      <c r="F10" s="6">
+        <v>312102</v>
+      </c>
+      <c r="G10" s="7">
+        <v>45566</v>
+      </c>
       <c r="H10" s="12">
         <v>45607</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J10" s="9" t="s">
         <v>12</v>
       </c>
@@ -796,7 +918,9 @@
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
       <c r="C11" s="5" t="s">
         <v>14</v>
       </c>
@@ -806,12 +930,18 @@
       <c r="E11" s="12">
         <v>45611</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="6">
+        <v>313179</v>
+      </c>
+      <c r="G11" s="7">
+        <v>45597</v>
+      </c>
       <c r="H11" s="12">
         <v>45607</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J11" s="9" t="s">
         <v>12</v>
       </c>
@@ -820,7 +950,9 @@
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
       <c r="C12" s="5" t="s">
         <v>14</v>
       </c>
@@ -830,12 +962,18 @@
       <c r="E12" s="12">
         <v>45611</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="6">
+        <v>311976</v>
+      </c>
+      <c r="G12" s="7">
+        <v>45566</v>
+      </c>
       <c r="H12" s="12">
         <v>45607</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J12" s="9" t="s">
         <v>12</v>
       </c>
@@ -844,7 +982,9 @@
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
       <c r="C13" s="5" t="s">
         <v>14</v>
       </c>
@@ -854,12 +994,18 @@
       <c r="E13" s="12">
         <v>45611</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
+      <c r="F13" s="6">
+        <v>310177</v>
+      </c>
+      <c r="G13" s="7">
+        <v>45566</v>
+      </c>
       <c r="H13" s="12">
         <v>45607</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J13" s="9" t="s">
         <v>12</v>
       </c>
@@ -868,7 +1014,9 @@
       <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="19"/>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
       <c r="C14" s="5" t="s">
         <v>14</v>
       </c>
@@ -878,332 +1026,50 @@
       <c r="E14" s="12">
         <v>45611</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
+      <c r="F14" s="6">
+        <v>304185</v>
+      </c>
+      <c r="G14" s="7">
+        <v>45536</v>
+      </c>
       <c r="H14" s="12">
         <v>45607</v>
       </c>
-      <c r="I14" s="5"/>
+      <c r="I14" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J14" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="12">
-        <v>45607</v>
-      </c>
-      <c r="E15" s="12">
-        <v>45611</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="12">
-        <v>45607</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="12">
-        <v>45607</v>
-      </c>
-      <c r="E16" s="12">
-        <v>45611</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="12">
-        <v>45607</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="12">
-        <v>45607</v>
-      </c>
-      <c r="E17" s="12">
-        <v>45611</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="12">
-        <v>45607</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="12">
-        <v>45607</v>
-      </c>
-      <c r="E18" s="12">
-        <v>45611</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="12">
-        <v>45607</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="12">
-        <v>45607</v>
-      </c>
-      <c r="E19" s="12">
-        <v>45611</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="12">
-        <v>45607</v>
-      </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="12">
-        <v>45607</v>
-      </c>
-      <c r="E20" s="12">
-        <v>45611</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="12">
-        <v>45607</v>
-      </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="12">
-        <v>45607</v>
-      </c>
-      <c r="E21" s="12">
-        <v>45611</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="12">
-        <v>45607</v>
-      </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="12">
-        <v>45607</v>
-      </c>
-      <c r="E22" s="12">
-        <v>45611</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="12">
-        <v>45607</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="12">
-        <v>45607</v>
-      </c>
-      <c r="E23" s="12">
-        <v>45611</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="12">
-        <v>45607</v>
-      </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="12">
-        <v>45607</v>
-      </c>
-      <c r="E24" s="12">
-        <v>45611</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="12">
-        <v>45607</v>
-      </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="12">
-        <v>45607</v>
-      </c>
-      <c r="E25" s="12">
-        <v>45611</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="12">
-        <v>45607</v>
-      </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="12">
-        <v>45607</v>
-      </c>
-      <c r="E26" s="12">
-        <v>45611</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="12">
-        <v>45607</v>
-      </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C28" s="13"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D29" s="14"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C30" s="13"/>
-      <c r="F30" s="14"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C32" s="13"/>
-      <c r="F32" s="14"/>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" s="13"/>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="13"/>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D37" s="14"/>
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="13"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="13"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="13"/>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="13"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I26" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}"/>
+  <autoFilter ref="A1:I14" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1213,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
   <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M73" sqref="M73"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1229,7 +1095,8 @@
     <col min="8" max="8" width="12.42578125" style="9" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.5703125" style="2"/>
+    <col min="11" max="11" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.5703125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1260,7 +1127,7 @@
       <c r="I1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1268,7 +1135,9 @@
       <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="20" t="s">
+        <v>27</v>
+      </c>
       <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
@@ -1278,12 +1147,18 @@
       <c r="E2" s="12">
         <v>45611</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
+      <c r="F2" s="6">
+        <v>310775</v>
+      </c>
+      <c r="G2" s="7">
+        <v>45566</v>
+      </c>
       <c r="H2" s="12">
         <v>45607</v>
       </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" s="15" t="s">
         <v>13</v>
       </c>
@@ -1292,7 +1167,9 @@
       <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
@@ -1302,12 +1179,18 @@
       <c r="E3" s="12">
         <v>45611</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
+      <c r="F3" s="6">
+        <v>313035</v>
+      </c>
+      <c r="G3" s="7">
+        <v>45597</v>
+      </c>
       <c r="H3" s="12">
         <v>45607</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J3" s="15" t="s">
         <v>13</v>
       </c>
@@ -1316,7 +1199,9 @@
       <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1326,12 +1211,18 @@
       <c r="E4" s="12">
         <v>45611</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
+      <c r="F4" s="6">
+        <v>313305</v>
+      </c>
+      <c r="G4" s="7">
+        <v>45597</v>
+      </c>
       <c r="H4" s="12">
         <v>45607</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J4" s="15" t="s">
         <v>13</v>
       </c>
@@ -1340,7 +1231,9 @@
       <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
@@ -1350,12 +1243,18 @@
       <c r="E5" s="12">
         <v>45611</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
+      <c r="F5" s="6">
+        <v>312117</v>
+      </c>
+      <c r="G5" s="7">
+        <v>45566</v>
+      </c>
       <c r="H5" s="12">
         <v>45607</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J5" s="15" t="s">
         <v>13</v>
       </c>
@@ -1364,7 +1263,9 @@
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1374,12 +1275,18 @@
       <c r="E6" s="12">
         <v>45611</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
+      <c r="F6" s="6">
+        <v>310066</v>
+      </c>
+      <c r="G6" s="7">
+        <v>45566</v>
+      </c>
       <c r="H6" s="12">
         <v>45607</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J6" s="15" t="s">
         <v>13</v>
       </c>
@@ -1388,7 +1295,9 @@
       <c r="A7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="19" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
@@ -1398,12 +1307,18 @@
       <c r="E7" s="12">
         <v>45611</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
+      <c r="F7" s="6">
+        <v>311949</v>
+      </c>
+      <c r="G7" s="7">
+        <v>45566</v>
+      </c>
       <c r="H7" s="12">
         <v>45607</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J7" s="15" t="s">
         <v>13</v>
       </c>
@@ -1412,7 +1327,9 @@
       <c r="A8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="19" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
@@ -1422,12 +1339,18 @@
       <c r="E8" s="12">
         <v>45611</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="6">
+        <v>313036</v>
+      </c>
+      <c r="G8" s="7">
+        <v>45597</v>
+      </c>
       <c r="H8" s="12">
         <v>45607</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J8" s="15" t="s">
         <v>13</v>
       </c>
@@ -1436,7 +1359,9 @@
       <c r="A9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="19" t="s">
+        <v>17</v>
+      </c>
       <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
@@ -1446,12 +1371,18 @@
       <c r="E9" s="12">
         <v>45611</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="6">
+        <v>312807</v>
+      </c>
+      <c r="G9" s="7">
+        <v>45597</v>
+      </c>
       <c r="H9" s="12">
         <v>45607</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J9" s="15" t="s">
         <v>13</v>
       </c>
@@ -1460,7 +1391,9 @@
       <c r="A10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="19" t="s">
+        <v>17</v>
+      </c>
       <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1470,12 +1403,18 @@
       <c r="E10" s="12">
         <v>45611</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
+      <c r="F10" s="6">
+        <v>312016</v>
+      </c>
+      <c r="G10" s="7">
+        <v>45566</v>
+      </c>
       <c r="H10" s="12">
         <v>45607</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J10" s="15" t="s">
         <v>13</v>
       </c>
@@ -1484,7 +1423,9 @@
       <c r="A11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="C11" s="5" t="s">
         <v>14</v>
       </c>
@@ -1494,12 +1435,18 @@
       <c r="E11" s="12">
         <v>45611</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="6">
+        <v>312494</v>
+      </c>
+      <c r="G11" s="7">
+        <v>45566</v>
+      </c>
       <c r="H11" s="12">
         <v>45607</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J11" s="15" t="s">
         <v>13</v>
       </c>
@@ -1508,7 +1455,9 @@
       <c r="A12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="C12" s="5" t="s">
         <v>14</v>
       </c>
@@ -1518,12 +1467,18 @@
       <c r="E12" s="12">
         <v>45611</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="6">
+        <v>302085</v>
+      </c>
+      <c r="G12" s="7">
+        <v>45505</v>
+      </c>
       <c r="H12" s="12">
         <v>45607</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J12" s="15" t="s">
         <v>13</v>
       </c>
@@ -1532,7 +1487,9 @@
       <c r="A13" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B13" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="C13" s="5" t="s">
         <v>14</v>
       </c>
@@ -1542,12 +1499,18 @@
       <c r="E13" s="12">
         <v>45611</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
+      <c r="F13" s="6">
+        <v>307304</v>
+      </c>
+      <c r="G13" s="7">
+        <v>45536</v>
+      </c>
       <c r="H13" s="12">
         <v>45607</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J13" s="15" t="s">
         <v>13</v>
       </c>
@@ -1556,7 +1519,9 @@
       <c r="A14" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="C14" s="5" t="s">
         <v>14</v>
       </c>
@@ -1566,12 +1531,18 @@
       <c r="E14" s="12">
         <v>45611</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
+      <c r="F14" s="6">
+        <v>312282</v>
+      </c>
+      <c r="G14" s="7">
+        <v>45566</v>
+      </c>
       <c r="H14" s="12">
         <v>45607</v>
       </c>
-      <c r="I14" s="5"/>
+      <c r="I14" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J14" s="15" t="s">
         <v>13</v>
       </c>
@@ -1580,7 +1551,9 @@
       <c r="A15" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="C15" s="5" t="s">
         <v>14</v>
       </c>
@@ -1590,12 +1563,18 @@
       <c r="E15" s="12">
         <v>45611</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
+      <c r="F15" s="6">
+        <v>312831</v>
+      </c>
+      <c r="G15" s="7">
+        <v>45597</v>
+      </c>
       <c r="H15" s="12">
         <v>45607</v>
       </c>
-      <c r="I15" s="5"/>
+      <c r="I15" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J15" s="15" t="s">
         <v>13</v>
       </c>
@@ -1604,7 +1583,9 @@
       <c r="A16" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="20"/>
+      <c r="B16" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1614,12 +1595,18 @@
       <c r="E16" s="12">
         <v>45611</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
+      <c r="F16" s="6">
+        <v>313182</v>
+      </c>
+      <c r="G16" s="7">
+        <v>45597</v>
+      </c>
       <c r="H16" s="12">
         <v>45607</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J16" s="15" t="s">
         <v>13</v>
       </c>
@@ -1628,7 +1615,9 @@
       <c r="A17" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="20"/>
+      <c r="B17" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="C17" s="5" t="s">
         <v>14</v>
       </c>
@@ -1638,12 +1627,18 @@
       <c r="E17" s="12">
         <v>45611</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
+      <c r="F17" s="6">
+        <v>313260</v>
+      </c>
+      <c r="G17" s="7">
+        <v>45597</v>
+      </c>
       <c r="H17" s="12">
         <v>45607</v>
       </c>
-      <c r="I17" s="5"/>
+      <c r="I17" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J17" s="15" t="s">
         <v>13</v>
       </c>
@@ -1658,7 +1653,9 @@
       <c r="A18" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="20"/>
+      <c r="B18" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="C18" s="5" t="s">
         <v>14</v>
       </c>
@@ -1668,12 +1665,18 @@
       <c r="E18" s="12">
         <v>45611</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
+      <c r="F18" s="6">
+        <v>310798</v>
+      </c>
+      <c r="G18" s="7">
+        <v>45566</v>
+      </c>
       <c r="H18" s="12">
         <v>45607</v>
       </c>
-      <c r="I18" s="5"/>
+      <c r="I18" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J18" s="15" t="s">
         <v>13</v>
       </c>
@@ -1682,7 +1685,9 @@
       <c r="A19" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="20"/>
+      <c r="B19" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="C19" s="5" t="s">
         <v>14</v>
       </c>
@@ -1692,12 +1697,18 @@
       <c r="E19" s="12">
         <v>45611</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
+      <c r="F19" s="6">
+        <v>311958</v>
+      </c>
+      <c r="G19" s="7">
+        <v>45566</v>
+      </c>
       <c r="H19" s="12">
         <v>45607</v>
       </c>
-      <c r="I19" s="5"/>
+      <c r="I19" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J19" s="15" t="s">
         <v>13</v>
       </c>
@@ -1706,7 +1717,9 @@
       <c r="A20" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="20"/>
+      <c r="B20" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="C20" s="5" t="s">
         <v>14</v>
       </c>
@@ -1716,12 +1729,18 @@
       <c r="E20" s="12">
         <v>45611</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
+      <c r="F20" s="6">
+        <v>313468</v>
+      </c>
+      <c r="G20" s="7">
+        <v>45597</v>
+      </c>
       <c r="H20" s="12">
         <v>45607</v>
       </c>
-      <c r="I20" s="5"/>
+      <c r="I20" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J20" s="15" t="s">
         <v>13</v>
       </c>
@@ -1730,7 +1749,9 @@
       <c r="A21" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="C21" s="5" t="s">
         <v>14</v>
       </c>
@@ -1740,12 +1761,18 @@
       <c r="E21" s="12">
         <v>45611</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
+      <c r="F21" s="6">
+        <v>313274</v>
+      </c>
+      <c r="G21" s="7">
+        <v>45597</v>
+      </c>
       <c r="H21" s="12">
         <v>45607</v>
       </c>
-      <c r="I21" s="5"/>
+      <c r="I21" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J21" s="15" t="s">
         <v>13</v>
       </c>
@@ -1754,7 +1781,9 @@
       <c r="A22" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="20"/>
+      <c r="B22" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="C22" s="5" t="s">
         <v>14</v>
       </c>
@@ -1764,12 +1793,18 @@
       <c r="E22" s="12">
         <v>45611</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
+      <c r="F22" s="6">
+        <v>313394</v>
+      </c>
+      <c r="G22" s="7">
+        <v>45597</v>
+      </c>
       <c r="H22" s="12">
         <v>45607</v>
       </c>
-      <c r="I22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J22" s="15" t="s">
         <v>13</v>
       </c>
@@ -1778,7 +1813,9 @@
       <c r="A23" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="20"/>
+      <c r="B23" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="C23" s="5" t="s">
         <v>14</v>
       </c>
@@ -1788,12 +1825,18 @@
       <c r="E23" s="12">
         <v>45611</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
+      <c r="F23" s="6">
+        <v>313183</v>
+      </c>
+      <c r="G23" s="7">
+        <v>45597</v>
+      </c>
       <c r="H23" s="12">
         <v>45607</v>
       </c>
-      <c r="I23" s="5"/>
+      <c r="I23" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J23" s="15" t="s">
         <v>13</v>
       </c>
@@ -1802,7 +1845,9 @@
       <c r="A24" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="20"/>
+      <c r="B24" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="C24" s="5" t="s">
         <v>14</v>
       </c>
@@ -1812,12 +1857,18 @@
       <c r="E24" s="12">
         <v>45611</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7"/>
+      <c r="F24" s="6">
+        <v>312682</v>
+      </c>
+      <c r="G24" s="7">
+        <v>45597</v>
+      </c>
       <c r="H24" s="12">
         <v>45607</v>
       </c>
-      <c r="I24" s="5"/>
+      <c r="I24" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J24" s="15" t="s">
         <v>13</v>
       </c>
@@ -1826,7 +1877,9 @@
       <c r="A25" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="20"/>
+      <c r="B25" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="C25" s="5" t="s">
         <v>14</v>
       </c>
@@ -1836,12 +1889,18 @@
       <c r="E25" s="12">
         <v>45611</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
+      <c r="F25" s="6">
+        <v>312404</v>
+      </c>
+      <c r="G25" s="7">
+        <v>45566</v>
+      </c>
       <c r="H25" s="12">
         <v>45607</v>
       </c>
-      <c r="I25" s="5"/>
+      <c r="I25" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J25" s="15" t="s">
         <v>13</v>
       </c>
@@ -1850,7 +1909,9 @@
       <c r="A26" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="20"/>
+      <c r="B26" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="C26" s="5" t="s">
         <v>14</v>
       </c>
@@ -1860,12 +1921,18 @@
       <c r="E26" s="12">
         <v>45611</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7"/>
+      <c r="F26" s="6">
+        <v>312412</v>
+      </c>
+      <c r="G26" s="7">
+        <v>45597</v>
+      </c>
       <c r="H26" s="12">
         <v>45607</v>
       </c>
-      <c r="I26" s="5"/>
+      <c r="I26" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J26" s="15" t="s">
         <v>13</v>
       </c>
@@ -1874,7 +1941,9 @@
       <c r="A27" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="20"/>
+      <c r="B27" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="C27" s="5" t="s">
         <v>14</v>
       </c>
@@ -1884,12 +1953,18 @@
       <c r="E27" s="12">
         <v>45611</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="3"/>
+      <c r="F27" s="4">
+        <v>312079</v>
+      </c>
+      <c r="G27" s="3">
+        <v>45566</v>
+      </c>
       <c r="H27" s="12">
         <v>45607</v>
       </c>
-      <c r="I27" s="5"/>
+      <c r="I27" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J27" s="15" t="s">
         <v>13</v>
       </c>
@@ -1898,7 +1973,9 @@
       <c r="A28" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="20"/>
+      <c r="B28" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="C28" s="5" t="s">
         <v>14</v>
       </c>
@@ -1908,12 +1985,18 @@
       <c r="E28" s="12">
         <v>45611</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="3"/>
+      <c r="F28" s="4">
+        <v>309926</v>
+      </c>
+      <c r="G28" s="3">
+        <v>45566</v>
+      </c>
       <c r="H28" s="12">
         <v>45607</v>
       </c>
-      <c r="I28" s="5"/>
+      <c r="I28" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J28" s="15" t="s">
         <v>13</v>
       </c>
@@ -1926,7 +2009,9 @@
       <c r="A29" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="20"/>
+      <c r="B29" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="C29" s="5" t="s">
         <v>14</v>
       </c>
@@ -1936,11 +2021,18 @@
       <c r="E29" s="12">
         <v>45611</v>
       </c>
-      <c r="G29" s="3"/>
+      <c r="F29" s="15">
+        <v>311720</v>
+      </c>
+      <c r="G29" s="3">
+        <v>45566</v>
+      </c>
       <c r="H29" s="12">
         <v>45607</v>
       </c>
-      <c r="I29" s="5"/>
+      <c r="I29" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J29" s="15" t="s">
         <v>13</v>
       </c>
@@ -1949,7 +2041,9 @@
       <c r="A30" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="20"/>
+      <c r="B30" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="C30" s="5" t="s">
         <v>14</v>
       </c>
@@ -1959,11 +2053,18 @@
       <c r="E30" s="12">
         <v>45611</v>
       </c>
-      <c r="G30" s="3"/>
+      <c r="F30" s="15">
+        <v>311521</v>
+      </c>
+      <c r="G30" s="3">
+        <v>45566</v>
+      </c>
       <c r="H30" s="12">
         <v>45607</v>
       </c>
-      <c r="I30" s="5"/>
+      <c r="I30" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J30" s="15" t="s">
         <v>13</v>
       </c>
@@ -1972,7 +2073,9 @@
       <c r="A31" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="20"/>
+      <c r="B31" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="C31" s="5" t="s">
         <v>14</v>
       </c>
@@ -1982,11 +2085,18 @@
       <c r="E31" s="12">
         <v>45611</v>
       </c>
-      <c r="G31" s="3"/>
+      <c r="F31" s="15">
+        <v>310145</v>
+      </c>
+      <c r="G31" s="3">
+        <v>45566</v>
+      </c>
       <c r="H31" s="12">
         <v>45607</v>
       </c>
-      <c r="I31" s="5"/>
+      <c r="I31" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J31" s="15" t="s">
         <v>13</v>
       </c>
@@ -1995,7 +2105,9 @@
       <c r="A32" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="20"/>
+      <c r="B32" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="C32" s="5" t="s">
         <v>14</v>
       </c>
@@ -2005,11 +2117,18 @@
       <c r="E32" s="12">
         <v>45611</v>
       </c>
-      <c r="G32" s="3"/>
+      <c r="F32" s="15">
+        <v>306760</v>
+      </c>
+      <c r="G32" s="3">
+        <v>45566</v>
+      </c>
       <c r="H32" s="12">
         <v>45607</v>
       </c>
-      <c r="I32" s="5"/>
+      <c r="I32" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J32" s="15" t="s">
         <v>13</v>
       </c>
@@ -2018,7 +2137,9 @@
       <c r="A33" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="20"/>
+      <c r="B33" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="C33" s="5" t="s">
         <v>14</v>
       </c>
@@ -2028,584 +2149,269 @@
       <c r="E33" s="12">
         <v>45611</v>
       </c>
-      <c r="G33" s="3"/>
+      <c r="F33" s="15">
+        <v>313118</v>
+      </c>
+      <c r="G33" s="3">
+        <v>45597</v>
+      </c>
       <c r="H33" s="12">
         <v>45607</v>
       </c>
-      <c r="I33" s="5"/>
+      <c r="I33" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="J33" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="12">
-        <v>45607</v>
-      </c>
-      <c r="E34" s="12">
-        <v>45611</v>
-      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="12">
-        <v>45607</v>
-      </c>
+      <c r="H34" s="12"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="15" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="12">
-        <v>45607</v>
-      </c>
-      <c r="E35" s="12">
-        <v>45611</v>
-      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="12">
-        <v>45607</v>
-      </c>
+      <c r="H35" s="12"/>
       <c r="I35" s="5"/>
-      <c r="J35" s="15" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="12">
-        <v>45607</v>
-      </c>
-      <c r="E36" s="12">
-        <v>45611</v>
-      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="12">
-        <v>45607</v>
-      </c>
+      <c r="H36" s="12"/>
       <c r="I36" s="5"/>
-      <c r="J36" s="15" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="12">
-        <v>45607</v>
-      </c>
-      <c r="E37" s="12">
-        <v>45611</v>
-      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
       <c r="G37" s="3"/>
-      <c r="H37" s="12">
-        <v>45607</v>
-      </c>
+      <c r="H37" s="12"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="15" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="12">
-        <v>45607</v>
-      </c>
-      <c r="E38" s="12">
-        <v>45611</v>
-      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="12">
-        <v>45607</v>
-      </c>
+      <c r="H38" s="12"/>
       <c r="I38" s="5"/>
-      <c r="J38" s="15" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="12">
-        <v>45607</v>
-      </c>
-      <c r="E39" s="12">
-        <v>45611</v>
-      </c>
+      <c r="B39" s="18"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
       <c r="G39" s="3"/>
-      <c r="H39" s="12">
-        <v>45607</v>
-      </c>
+      <c r="H39" s="12"/>
       <c r="I39" s="5"/>
-      <c r="J39" s="15" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="12">
-        <v>45607</v>
-      </c>
-      <c r="E40" s="12">
-        <v>45611</v>
-      </c>
+      <c r="B40" s="18"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
       <c r="G40" s="3"/>
-      <c r="H40" s="12">
-        <v>45607</v>
-      </c>
+      <c r="H40" s="12"/>
       <c r="I40" s="5"/>
-      <c r="J40" s="15" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="12">
-        <v>45607</v>
-      </c>
-      <c r="E41" s="12">
-        <v>45611</v>
-      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="12">
-        <v>45607</v>
-      </c>
+      <c r="H41" s="12"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="15" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="12">
-        <v>45607</v>
-      </c>
-      <c r="E42" s="12">
-        <v>45611</v>
-      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
       <c r="G42" s="3"/>
-      <c r="H42" s="12">
-        <v>45607</v>
-      </c>
+      <c r="H42" s="12"/>
       <c r="I42" s="5"/>
-      <c r="J42" s="15" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="12">
-        <v>45607</v>
-      </c>
-      <c r="E43" s="12">
-        <v>45611</v>
-      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="12">
-        <v>45607</v>
-      </c>
+      <c r="H43" s="12"/>
       <c r="I43" s="5"/>
-      <c r="J43" s="15" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="12">
-        <v>45607</v>
-      </c>
-      <c r="E44" s="12">
-        <v>45611</v>
-      </c>
+      <c r="B44" s="18"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="12">
-        <v>45607</v>
-      </c>
+      <c r="H44" s="12"/>
       <c r="I44" s="5"/>
-      <c r="J44" s="15" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="12">
-        <v>45607</v>
-      </c>
-      <c r="E45" s="12">
-        <v>45611</v>
-      </c>
+      <c r="B45" s="18"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
       <c r="G45" s="3"/>
-      <c r="H45" s="12">
-        <v>45607</v>
-      </c>
+      <c r="H45" s="12"/>
       <c r="I45" s="5"/>
-      <c r="J45" s="15" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="12">
-        <v>45607</v>
-      </c>
-      <c r="E46" s="12">
-        <v>45611</v>
-      </c>
+      <c r="B46" s="18"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
       <c r="G46" s="3"/>
-      <c r="H46" s="12">
-        <v>45607</v>
-      </c>
+      <c r="H46" s="12"/>
       <c r="I46" s="5"/>
-      <c r="J46" s="15" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="12">
-        <v>45607</v>
-      </c>
-      <c r="E47" s="12">
-        <v>45611</v>
-      </c>
+      <c r="B47" s="18"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="12">
-        <v>45607</v>
-      </c>
+      <c r="H47" s="12"/>
       <c r="I47" s="5"/>
-      <c r="J47" s="15" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="12">
-        <v>45607</v>
-      </c>
-      <c r="E48" s="12">
-        <v>45611</v>
-      </c>
+      <c r="B48" s="18"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="12">
-        <v>45607</v>
-      </c>
+      <c r="H48" s="12"/>
       <c r="I48" s="5"/>
-      <c r="J48" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="12">
-        <v>45607</v>
-      </c>
-      <c r="E49" s="12">
-        <v>45611</v>
-      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="18"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="12">
-        <v>45607</v>
-      </c>
+      <c r="H49" s="12"/>
       <c r="I49" s="5"/>
-      <c r="J49" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="12">
-        <v>45607</v>
-      </c>
-      <c r="E50" s="12">
-        <v>45611</v>
-      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="18"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="12">
-        <v>45607</v>
-      </c>
+      <c r="H50" s="12"/>
       <c r="I50" s="5"/>
-      <c r="J50" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="12">
-        <v>45607</v>
-      </c>
-      <c r="E51" s="12">
-        <v>45611</v>
-      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="18"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
       <c r="G51" s="3"/>
-      <c r="H51" s="12">
-        <v>45607</v>
-      </c>
+      <c r="H51" s="12"/>
       <c r="I51" s="5"/>
-      <c r="J51" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="12">
-        <v>45607</v>
-      </c>
-      <c r="E52" s="12">
-        <v>45611</v>
-      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="18"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="12">
-        <v>45607</v>
-      </c>
+      <c r="H52" s="12"/>
       <c r="I52" s="5"/>
-      <c r="J52" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="12">
-        <v>45607</v>
-      </c>
-      <c r="E53" s="12">
-        <v>45611</v>
-      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="18"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
       <c r="G53" s="3"/>
-      <c r="H53" s="12">
-        <v>45607</v>
-      </c>
+      <c r="H53" s="12"/>
       <c r="I53" s="5"/>
-      <c r="J53" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="12">
-        <v>45607</v>
-      </c>
-      <c r="E54" s="12">
-        <v>45611</v>
-      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="18"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
       <c r="G54" s="3"/>
-      <c r="H54" s="12">
-        <v>45607</v>
-      </c>
+      <c r="H54" s="12"/>
       <c r="I54" s="5"/>
-      <c r="J54" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="12">
-        <v>45607</v>
-      </c>
-      <c r="E55" s="12">
-        <v>45611</v>
-      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="18"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="12">
-        <v>45607</v>
-      </c>
+      <c r="H55" s="12"/>
       <c r="I55" s="5"/>
-      <c r="J55" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="12">
-        <v>45607</v>
-      </c>
-      <c r="E56" s="12">
-        <v>45611</v>
-      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="18"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
       <c r="G56" s="3"/>
-      <c r="H56" s="12">
-        <v>45607</v>
-      </c>
+      <c r="H56" s="12"/>
       <c r="I56" s="5"/>
-      <c r="J56" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C57" s="5"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C58" s="5"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C59" s="5"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C60" s="5"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C61" s="5"/>
       <c r="E61" s="12"/>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C62" s="5"/>
       <c r="E62" s="12"/>
       <c r="H62" s="12"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C63" s="5"/>
       <c r="E63" s="12"/>
       <c r="H63" s="12"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C64" s="5"/>
       <c r="E64" s="12"/>
       <c r="H64" s="12"/>

--- a/Base/Backlog_6.xlsx
+++ b/Base/Backlog_6.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9461201A-016D-4BB8-98CB-AF87ABE26183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A7E550-54ED-46FD-8CC3-886FD2CA8220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="SPN" sheetId="1" r:id="rId1"/>
     <sheet name="ITI" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ITI!$A$1:$I$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ITI!$A$1:$I$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SPN!$A$1:$I$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="31">
   <si>
     <t>Backlog</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Antônio Lucas</t>
+  </si>
+  <si>
+    <t>Resolvido</t>
   </si>
 </sst>
 </file>
@@ -576,7 +579,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -652,7 +655,7 @@
         <v>45607</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>12</v>
@@ -684,7 +687,7 @@
         <v>45607</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>12</v>
@@ -748,7 +751,7 @@
         <v>45607</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>12</v>
@@ -812,7 +815,7 @@
         <v>45607</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>12</v>
@@ -844,7 +847,7 @@
         <v>45607</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>12</v>
@@ -876,7 +879,7 @@
         <v>45607</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>12</v>
@@ -972,7 +975,7 @@
         <v>45607</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>12</v>
@@ -1036,7 +1039,7 @@
         <v>45607</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>12</v>
@@ -1079,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
   <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1135,8 +1138,8 @@
       <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>27</v>
+      <c r="B2" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>14</v>
@@ -1147,17 +1150,17 @@
       <c r="E2" s="12">
         <v>45611</v>
       </c>
-      <c r="F2" s="6">
-        <v>310775</v>
-      </c>
-      <c r="G2" s="7">
+      <c r="F2" s="15">
+        <v>310145</v>
+      </c>
+      <c r="G2" s="3">
         <v>45566</v>
       </c>
       <c r="H2" s="12">
         <v>45607</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J2" s="15" t="s">
         <v>13</v>
@@ -1167,8 +1170,8 @@
       <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>16</v>
+      <c r="B3" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>14</v>
@@ -1179,11 +1182,11 @@
       <c r="E3" s="12">
         <v>45611</v>
       </c>
-      <c r="F3" s="6">
-        <v>313035</v>
-      </c>
-      <c r="G3" s="7">
-        <v>45597</v>
+      <c r="F3" s="15">
+        <v>306760</v>
+      </c>
+      <c r="G3" s="3">
+        <v>45566</v>
       </c>
       <c r="H3" s="12">
         <v>45607</v>
@@ -1199,8 +1202,8 @@
       <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>16</v>
+      <c r="B4" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>14</v>
@@ -1211,10 +1214,10 @@
       <c r="E4" s="12">
         <v>45611</v>
       </c>
-      <c r="F4" s="6">
-        <v>313305</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="F4" s="15">
+        <v>313118</v>
+      </c>
+      <c r="G4" s="3">
         <v>45597</v>
       </c>
       <c r="H4" s="12">
@@ -1232,7 +1235,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>14</v>
@@ -1244,16 +1247,16 @@
         <v>45611</v>
       </c>
       <c r="F5" s="6">
-        <v>312117</v>
+        <v>313468</v>
       </c>
       <c r="G5" s="7">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="H5" s="12">
         <v>45607</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>13</v>
@@ -1264,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>14</v>
@@ -1276,10 +1279,10 @@
         <v>45611</v>
       </c>
       <c r="F6" s="6">
-        <v>310066</v>
+        <v>313274</v>
       </c>
       <c r="G6" s="7">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="H6" s="12">
         <v>45607</v>
@@ -1295,8 +1298,8 @@
       <c r="A7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>17</v>
+      <c r="B7" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>14</v>
@@ -1308,16 +1311,16 @@
         <v>45611</v>
       </c>
       <c r="F7" s="6">
-        <v>311949</v>
+        <v>313394</v>
       </c>
       <c r="G7" s="7">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="H7" s="12">
         <v>45607</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J7" s="15" t="s">
         <v>13</v>
@@ -1327,8 +1330,8 @@
       <c r="A8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>17</v>
+      <c r="B8" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>14</v>
@@ -1340,7 +1343,7 @@
         <v>45611</v>
       </c>
       <c r="F8" s="6">
-        <v>313036</v>
+        <v>313183</v>
       </c>
       <c r="G8" s="7">
         <v>45597</v>
@@ -1359,8 +1362,8 @@
       <c r="A9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>17</v>
+      <c r="B9" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>14</v>
@@ -1372,7 +1375,7 @@
         <v>45611</v>
       </c>
       <c r="F9" s="6">
-        <v>312807</v>
+        <v>312682</v>
       </c>
       <c r="G9" s="7">
         <v>45597</v>
@@ -1381,7 +1384,7 @@
         <v>45607</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J9" s="15" t="s">
         <v>13</v>
@@ -1391,8 +1394,8 @@
       <c r="A10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>17</v>
+      <c r="B10" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>14</v>
@@ -1404,7 +1407,7 @@
         <v>45611</v>
       </c>
       <c r="F10" s="6">
-        <v>312016</v>
+        <v>312404</v>
       </c>
       <c r="G10" s="7">
         <v>45566</v>
@@ -1413,7 +1416,7 @@
         <v>45607</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J10" s="15" t="s">
         <v>13</v>
@@ -1424,7 +1427,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>14</v>
@@ -1436,16 +1439,16 @@
         <v>45611</v>
       </c>
       <c r="F11" s="6">
-        <v>312494</v>
+        <v>312412</v>
       </c>
       <c r="G11" s="7">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="H11" s="12">
         <v>45607</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J11" s="15" t="s">
         <v>13</v>
@@ -1456,7 +1459,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>14</v>
@@ -1467,17 +1470,17 @@
       <c r="E12" s="12">
         <v>45611</v>
       </c>
-      <c r="F12" s="6">
-        <v>302085</v>
-      </c>
-      <c r="G12" s="7">
-        <v>45505</v>
+      <c r="F12" s="4">
+        <v>312079</v>
+      </c>
+      <c r="G12" s="3">
+        <v>45566</v>
       </c>
       <c r="H12" s="12">
         <v>45607</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J12" s="15" t="s">
         <v>13</v>
@@ -1488,7 +1491,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>14</v>
@@ -1499,17 +1502,17 @@
       <c r="E13" s="12">
         <v>45611</v>
       </c>
-      <c r="F13" s="6">
-        <v>307304</v>
-      </c>
-      <c r="G13" s="7">
-        <v>45536</v>
+      <c r="F13" s="4">
+        <v>309926</v>
+      </c>
+      <c r="G13" s="3">
+        <v>45566</v>
       </c>
       <c r="H13" s="12">
         <v>45607</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J13" s="15" t="s">
         <v>13</v>
@@ -1520,7 +1523,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>14</v>
@@ -1531,17 +1534,17 @@
       <c r="E14" s="12">
         <v>45611</v>
       </c>
-      <c r="F14" s="6">
-        <v>312282</v>
-      </c>
-      <c r="G14" s="7">
+      <c r="F14" s="15">
+        <v>311720</v>
+      </c>
+      <c r="G14" s="3">
         <v>45566</v>
       </c>
       <c r="H14" s="12">
         <v>45607</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J14" s="15" t="s">
         <v>13</v>
@@ -1551,8 +1554,8 @@
       <c r="A15" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>18</v>
+      <c r="B15" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>14</v>
@@ -1563,17 +1566,17 @@
       <c r="E15" s="12">
         <v>45611</v>
       </c>
-      <c r="F15" s="6">
-        <v>312831</v>
-      </c>
-      <c r="G15" s="7">
-        <v>45597</v>
+      <c r="F15" s="15">
+        <v>311521</v>
+      </c>
+      <c r="G15" s="3">
+        <v>45566</v>
       </c>
       <c r="H15" s="12">
         <v>45607</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J15" s="15" t="s">
         <v>13</v>
@@ -1583,8 +1586,8 @@
       <c r="A16" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>28</v>
+      <c r="B16" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>14</v>
@@ -1596,10 +1599,10 @@
         <v>45611</v>
       </c>
       <c r="F16" s="6">
-        <v>313182</v>
+        <v>311958</v>
       </c>
       <c r="G16" s="7">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="H16" s="12">
         <v>45607</v>
@@ -1616,7 +1619,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>14</v>
@@ -1628,10 +1631,10 @@
         <v>45611</v>
       </c>
       <c r="F17" s="6">
-        <v>313260</v>
+        <v>310798</v>
       </c>
       <c r="G17" s="7">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="H17" s="12">
         <v>45607</v>
@@ -1654,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>14</v>
@@ -1666,10 +1669,10 @@
         <v>45611</v>
       </c>
       <c r="F18" s="6">
-        <v>310798</v>
+        <v>313182</v>
       </c>
       <c r="G18" s="7">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="H18" s="12">
         <v>45607</v>
@@ -1685,8 +1688,8 @@
       <c r="A19" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>19</v>
+      <c r="B19" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>14</v>
@@ -1698,16 +1701,16 @@
         <v>45611</v>
       </c>
       <c r="F19" s="6">
-        <v>311958</v>
+        <v>313260</v>
       </c>
       <c r="G19" s="7">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="H19" s="12">
         <v>45607</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>13</v>
@@ -1717,8 +1720,8 @@
       <c r="A20" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>29</v>
+      <c r="B20" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>14</v>
@@ -1730,7 +1733,7 @@
         <v>45611</v>
       </c>
       <c r="F20" s="6">
-        <v>313468</v>
+        <v>312831</v>
       </c>
       <c r="G20" s="7">
         <v>45597</v>
@@ -1750,7 +1753,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>14</v>
@@ -1762,10 +1765,10 @@
         <v>45611</v>
       </c>
       <c r="F21" s="6">
-        <v>313274</v>
+        <v>312494</v>
       </c>
       <c r="G21" s="7">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="H21" s="12">
         <v>45607</v>
@@ -1782,7 +1785,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>14</v>
@@ -1794,10 +1797,10 @@
         <v>45611</v>
       </c>
       <c r="F22" s="6">
-        <v>313394</v>
+        <v>302085</v>
       </c>
       <c r="G22" s="7">
-        <v>45597</v>
+        <v>45505</v>
       </c>
       <c r="H22" s="12">
         <v>45607</v>
@@ -1814,7 +1817,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>14</v>
@@ -1826,10 +1829,10 @@
         <v>45611</v>
       </c>
       <c r="F23" s="6">
-        <v>313183</v>
+        <v>307304</v>
       </c>
       <c r="G23" s="7">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="H23" s="12">
         <v>45607</v>
@@ -1846,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>14</v>
@@ -1858,10 +1861,10 @@
         <v>45611</v>
       </c>
       <c r="F24" s="6">
-        <v>312682</v>
+        <v>312282</v>
       </c>
       <c r="G24" s="7">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="H24" s="12">
         <v>45607</v>
@@ -1877,8 +1880,8 @@
       <c r="A25" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>29</v>
+      <c r="B25" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>14</v>
@@ -1890,7 +1893,7 @@
         <v>45611</v>
       </c>
       <c r="F25" s="6">
-        <v>312404</v>
+        <v>311949</v>
       </c>
       <c r="G25" s="7">
         <v>45566</v>
@@ -1909,8 +1912,8 @@
       <c r="A26" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>29</v>
+      <c r="B26" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>14</v>
@@ -1922,7 +1925,7 @@
         <v>45611</v>
       </c>
       <c r="F26" s="6">
-        <v>312412</v>
+        <v>313036</v>
       </c>
       <c r="G26" s="7">
         <v>45597</v>
@@ -1941,8 +1944,8 @@
       <c r="A27" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="20" t="s">
-        <v>29</v>
+      <c r="B27" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>14</v>
@@ -1953,11 +1956,11 @@
       <c r="E27" s="12">
         <v>45611</v>
       </c>
-      <c r="F27" s="4">
-        <v>312079</v>
-      </c>
-      <c r="G27" s="3">
-        <v>45566</v>
+      <c r="F27" s="6">
+        <v>312807</v>
+      </c>
+      <c r="G27" s="7">
+        <v>45597</v>
       </c>
       <c r="H27" s="12">
         <v>45607</v>
@@ -1973,8 +1976,8 @@
       <c r="A28" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="20" t="s">
-        <v>29</v>
+      <c r="B28" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>14</v>
@@ -1985,10 +1988,10 @@
       <c r="E28" s="12">
         <v>45611</v>
       </c>
-      <c r="F28" s="4">
-        <v>309926</v>
-      </c>
-      <c r="G28" s="3">
+      <c r="F28" s="6">
+        <v>312016</v>
+      </c>
+      <c r="G28" s="7">
         <v>45566</v>
       </c>
       <c r="H28" s="12">
@@ -2010,7 +2013,7 @@
         <v>5</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>14</v>
@@ -2021,17 +2024,17 @@
       <c r="E29" s="12">
         <v>45611</v>
       </c>
-      <c r="F29" s="15">
-        <v>311720</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="F29" s="6">
+        <v>312117</v>
+      </c>
+      <c r="G29" s="7">
         <v>45566</v>
       </c>
       <c r="H29" s="12">
         <v>45607</v>
       </c>
-      <c r="I29" s="5" t="s">
-        <v>15</v>
+      <c r="I29" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="J29" s="15" t="s">
         <v>13</v>
@@ -2042,7 +2045,7 @@
         <v>5</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>14</v>
@@ -2053,17 +2056,17 @@
       <c r="E30" s="12">
         <v>45611</v>
       </c>
-      <c r="F30" s="15">
-        <v>311521</v>
-      </c>
-      <c r="G30" s="3">
+      <c r="F30" s="6">
+        <v>310066</v>
+      </c>
+      <c r="G30" s="7">
         <v>45566</v>
       </c>
       <c r="H30" s="12">
         <v>45607</v>
       </c>
-      <c r="I30" s="5" t="s">
-        <v>15</v>
+      <c r="I30" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="J30" s="15" t="s">
         <v>13</v>
@@ -2073,8 +2076,8 @@
       <c r="A31" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="21" t="s">
-        <v>23</v>
+      <c r="B31" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>14</v>
@@ -2085,11 +2088,11 @@
       <c r="E31" s="12">
         <v>45611</v>
       </c>
-      <c r="F31" s="15">
-        <v>310145</v>
-      </c>
-      <c r="G31" s="3">
-        <v>45566</v>
+      <c r="F31" s="6">
+        <v>313035</v>
+      </c>
+      <c r="G31" s="7">
+        <v>45597</v>
       </c>
       <c r="H31" s="12">
         <v>45607</v>
@@ -2105,8 +2108,8 @@
       <c r="A32" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="21" t="s">
-        <v>23</v>
+      <c r="B32" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>14</v>
@@ -2117,11 +2120,11 @@
       <c r="E32" s="12">
         <v>45611</v>
       </c>
-      <c r="F32" s="15">
-        <v>306760</v>
-      </c>
-      <c r="G32" s="3">
-        <v>45566</v>
+      <c r="F32" s="6">
+        <v>313305</v>
+      </c>
+      <c r="G32" s="7">
+        <v>45597</v>
       </c>
       <c r="H32" s="12">
         <v>45607</v>
@@ -2137,8 +2140,8 @@
       <c r="A33" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="21" t="s">
-        <v>23</v>
+      <c r="B33" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>14</v>
@@ -2149,11 +2152,11 @@
       <c r="E33" s="12">
         <v>45611</v>
       </c>
-      <c r="F33" s="15">
-        <v>313118</v>
-      </c>
-      <c r="G33" s="3">
-        <v>45597</v>
+      <c r="F33" s="6">
+        <v>310775</v>
+      </c>
+      <c r="G33" s="7">
+        <v>45566</v>
       </c>
       <c r="H33" s="12">
         <v>45607</v>
@@ -2465,7 +2468,11 @@
       <c r="H76" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I28" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}"/>
+  <autoFilter ref="A1:I33" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I33">
+      <sortCondition ref="B1:B33"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Base/Backlog_6.xlsx
+++ b/Base/Backlog_6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A7E550-54ED-46FD-8CC3-886FD2CA8220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC29C45-CCEF-4A6A-A633-1BF146152814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="SPN" sheetId="1" r:id="rId1"/>
@@ -185,12 +185,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -205,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -260,6 +266,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1083,7 +1092,7 @@
   <dimension ref="A1:P76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I32" sqref="I32:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1159,7 +1168,7 @@
       <c r="H2" s="12">
         <v>45607</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="22" t="s">
         <v>30</v>
       </c>
       <c r="J2" s="15" t="s">
@@ -1191,8 +1200,8 @@
       <c r="H3" s="12">
         <v>45607</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>15</v>
+      <c r="I3" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J3" s="15" t="s">
         <v>13</v>
@@ -1223,8 +1232,8 @@
       <c r="H4" s="12">
         <v>45607</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>15</v>
+      <c r="I4" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J4" s="15" t="s">
         <v>13</v>
@@ -1255,7 +1264,7 @@
       <c r="H5" s="12">
         <v>45607</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="22" t="s">
         <v>30</v>
       </c>
       <c r="J5" s="15" t="s">
@@ -1287,8 +1296,8 @@
       <c r="H6" s="12">
         <v>45607</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>15</v>
+      <c r="I6" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>13</v>
@@ -1319,7 +1328,7 @@
       <c r="H7" s="12">
         <v>45607</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="22" t="s">
         <v>30</v>
       </c>
       <c r="J7" s="15" t="s">
@@ -1351,8 +1360,8 @@
       <c r="H8" s="12">
         <v>45607</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>15</v>
+      <c r="I8" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>13</v>
@@ -1383,7 +1392,7 @@
       <c r="H9" s="12">
         <v>45607</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="22" t="s">
         <v>30</v>
       </c>
       <c r="J9" s="15" t="s">
@@ -1415,7 +1424,7 @@
       <c r="H10" s="12">
         <v>45607</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="22" t="s">
         <v>30</v>
       </c>
       <c r="J10" s="15" t="s">
@@ -1447,7 +1456,7 @@
       <c r="H11" s="12">
         <v>45607</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="22" t="s">
         <v>30</v>
       </c>
       <c r="J11" s="15" t="s">
@@ -1479,7 +1488,7 @@
       <c r="H12" s="12">
         <v>45607</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="22" t="s">
         <v>30</v>
       </c>
       <c r="J12" s="15" t="s">
@@ -1511,7 +1520,7 @@
       <c r="H13" s="12">
         <v>45607</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="22" t="s">
         <v>30</v>
       </c>
       <c r="J13" s="15" t="s">
@@ -1543,7 +1552,7 @@
       <c r="H14" s="12">
         <v>45607</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="22" t="s">
         <v>30</v>
       </c>
       <c r="J14" s="15" t="s">
@@ -1575,7 +1584,7 @@
       <c r="H15" s="12">
         <v>45607</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="22" t="s">
         <v>30</v>
       </c>
       <c r="J15" s="15" t="s">
@@ -1607,8 +1616,8 @@
       <c r="H16" s="12">
         <v>45607</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>15</v>
+      <c r="I16" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J16" s="15" t="s">
         <v>13</v>
@@ -1639,8 +1648,8 @@
       <c r="H17" s="12">
         <v>45607</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>15</v>
+      <c r="I17" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>13</v>
@@ -1677,8 +1686,8 @@
       <c r="H18" s="12">
         <v>45607</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>15</v>
+      <c r="I18" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J18" s="15" t="s">
         <v>13</v>
@@ -1709,7 +1718,7 @@
       <c r="H19" s="12">
         <v>45607</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="22" t="s">
         <v>30</v>
       </c>
       <c r="J19" s="15" t="s">
@@ -1741,8 +1750,8 @@
       <c r="H20" s="12">
         <v>45607</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>15</v>
+      <c r="I20" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J20" s="15" t="s">
         <v>13</v>
@@ -1773,8 +1782,8 @@
       <c r="H21" s="12">
         <v>45607</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>15</v>
+      <c r="I21" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J21" s="15" t="s">
         <v>13</v>
@@ -1805,8 +1814,8 @@
       <c r="H22" s="12">
         <v>45607</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>15</v>
+      <c r="I22" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J22" s="15" t="s">
         <v>13</v>
@@ -1837,8 +1846,8 @@
       <c r="H23" s="12">
         <v>45607</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>15</v>
+      <c r="I23" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J23" s="15" t="s">
         <v>13</v>
@@ -1869,8 +1878,8 @@
       <c r="H24" s="12">
         <v>45607</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>15</v>
+      <c r="I24" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J24" s="15" t="s">
         <v>13</v>
@@ -1901,8 +1910,8 @@
       <c r="H25" s="12">
         <v>45607</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>15</v>
+      <c r="I25" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J25" s="15" t="s">
         <v>13</v>
@@ -1933,8 +1942,8 @@
       <c r="H26" s="12">
         <v>45607</v>
       </c>
-      <c r="I26" s="5" t="s">
-        <v>15</v>
+      <c r="I26" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J26" s="15" t="s">
         <v>13</v>
@@ -1965,8 +1974,8 @@
       <c r="H27" s="12">
         <v>45607</v>
       </c>
-      <c r="I27" s="5" t="s">
-        <v>15</v>
+      <c r="I27" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J27" s="15" t="s">
         <v>13</v>
@@ -1997,8 +2006,8 @@
       <c r="H28" s="12">
         <v>45607</v>
       </c>
-      <c r="I28" s="5" t="s">
-        <v>15</v>
+      <c r="I28" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J28" s="15" t="s">
         <v>13</v>
@@ -2033,7 +2042,7 @@
       <c r="H29" s="12">
         <v>45607</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="I29" s="22" t="s">
         <v>30</v>
       </c>
       <c r="J29" s="15" t="s">
@@ -2065,7 +2074,7 @@
       <c r="H30" s="12">
         <v>45607</v>
       </c>
-      <c r="I30" s="15" t="s">
+      <c r="I30" s="22" t="s">
         <v>30</v>
       </c>
       <c r="J30" s="15" t="s">
@@ -2097,8 +2106,8 @@
       <c r="H31" s="12">
         <v>45607</v>
       </c>
-      <c r="I31" s="5" t="s">
-        <v>15</v>
+      <c r="I31" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J31" s="15" t="s">
         <v>13</v>
@@ -2129,8 +2138,8 @@
       <c r="H32" s="12">
         <v>45607</v>
       </c>
-      <c r="I32" s="5" t="s">
-        <v>15</v>
+      <c r="I32" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J32" s="15" t="s">
         <v>13</v>
@@ -2161,8 +2170,8 @@
       <c r="H33" s="12">
         <v>45607</v>
       </c>
-      <c r="I33" s="5" t="s">
-        <v>15</v>
+      <c r="I33" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="J33" s="15" t="s">
         <v>13</v>

--- a/Base/Backlog_6.xlsx
+++ b/Base/Backlog_6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC29C45-CCEF-4A6A-A633-1BF146152814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC673000-6F71-448A-A11C-40B3A8FD0FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="SPN" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="30">
   <si>
     <t>Backlog</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>Emerson Simette</t>
-  </si>
-  <si>
-    <t>Semana 06</t>
   </si>
   <si>
     <t>Pendente</t>
@@ -587,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -643,10 +640,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="C2" s="5">
+        <v>6</v>
       </c>
       <c r="D2" s="12">
         <v>45607</v>
@@ -664,7 +661,7 @@
         <v>45607</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>12</v>
@@ -675,10 +672,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="C3" s="5">
+        <v>6</v>
       </c>
       <c r="D3" s="12">
         <v>45607</v>
@@ -696,7 +693,7 @@
         <v>45607</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>12</v>
@@ -707,10 +704,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6</v>
       </c>
       <c r="D4" s="12">
         <v>45607</v>
@@ -728,7 +725,7 @@
         <v>45607</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>12</v>
@@ -739,10 +736,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6</v>
       </c>
       <c r="D5" s="12">
         <v>45607</v>
@@ -760,7 +757,7 @@
         <v>45607</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>12</v>
@@ -771,10 +768,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6</v>
       </c>
       <c r="D6" s="12">
         <v>45607</v>
@@ -792,7 +789,7 @@
         <v>45607</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>12</v>
@@ -803,10 +800,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6</v>
       </c>
       <c r="D7" s="12">
         <v>45607</v>
@@ -824,7 +821,7 @@
         <v>45607</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>12</v>
@@ -835,10 +832,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="C8" s="5">
+        <v>6</v>
       </c>
       <c r="D8" s="12">
         <v>45607</v>
@@ -856,7 +853,7 @@
         <v>45607</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>12</v>
@@ -867,10 +864,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="C9" s="5">
+        <v>6</v>
       </c>
       <c r="D9" s="12">
         <v>45607</v>
@@ -888,7 +885,7 @@
         <v>45607</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>12</v>
@@ -899,10 +896,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="C10" s="5">
+        <v>6</v>
       </c>
       <c r="D10" s="12">
         <v>45607</v>
@@ -920,7 +917,7 @@
         <v>45607</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>12</v>
@@ -931,10 +928,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="C11" s="5">
+        <v>6</v>
       </c>
       <c r="D11" s="12">
         <v>45607</v>
@@ -952,7 +949,7 @@
         <v>45607</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>12</v>
@@ -963,10 +960,10 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="C12" s="5">
+        <v>6</v>
       </c>
       <c r="D12" s="12">
         <v>45607</v>
@@ -984,7 +981,7 @@
         <v>45607</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>12</v>
@@ -995,10 +992,10 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="C13" s="5">
+        <v>6</v>
       </c>
       <c r="D13" s="12">
         <v>45607</v>
@@ -1016,7 +1013,7 @@
         <v>45607</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>12</v>
@@ -1027,10 +1024,10 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="C14" s="5">
+        <v>6</v>
       </c>
       <c r="D14" s="12">
         <v>45607</v>
@@ -1048,7 +1045,7 @@
         <v>45607</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>12</v>
@@ -1091,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
   <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32:I33"/>
+    <sheetView topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1148,10 +1145,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="C2" s="5">
+        <v>6</v>
       </c>
       <c r="D2" s="12">
         <v>45607</v>
@@ -1169,7 +1166,7 @@
         <v>45607</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J2" s="15" t="s">
         <v>13</v>
@@ -1180,10 +1177,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="C3" s="5">
+        <v>6</v>
       </c>
       <c r="D3" s="12">
         <v>45607</v>
@@ -1201,7 +1198,7 @@
         <v>45607</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J3" s="15" t="s">
         <v>13</v>
@@ -1212,10 +1209,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6</v>
       </c>
       <c r="D4" s="12">
         <v>45607</v>
@@ -1233,7 +1230,7 @@
         <v>45607</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" s="15" t="s">
         <v>13</v>
@@ -1244,10 +1241,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6</v>
       </c>
       <c r="D5" s="12">
         <v>45607</v>
@@ -1265,7 +1262,7 @@
         <v>45607</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>13</v>
@@ -1276,10 +1273,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6</v>
       </c>
       <c r="D6" s="12">
         <v>45607</v>
@@ -1297,7 +1294,7 @@
         <v>45607</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>13</v>
@@ -1308,10 +1305,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6</v>
       </c>
       <c r="D7" s="12">
         <v>45607</v>
@@ -1329,7 +1326,7 @@
         <v>45607</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J7" s="15" t="s">
         <v>13</v>
@@ -1340,10 +1337,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="C8" s="5">
+        <v>6</v>
       </c>
       <c r="D8" s="12">
         <v>45607</v>
@@ -1361,7 +1358,7 @@
         <v>45607</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>13</v>
@@ -1372,10 +1369,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="C9" s="5">
+        <v>6</v>
       </c>
       <c r="D9" s="12">
         <v>45607</v>
@@ -1393,7 +1390,7 @@
         <v>45607</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J9" s="15" t="s">
         <v>13</v>
@@ -1404,10 +1401,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="C10" s="5">
+        <v>6</v>
       </c>
       <c r="D10" s="12">
         <v>45607</v>
@@ -1425,7 +1422,7 @@
         <v>45607</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J10" s="15" t="s">
         <v>13</v>
@@ -1436,10 +1433,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="C11" s="5">
+        <v>6</v>
       </c>
       <c r="D11" s="12">
         <v>45607</v>
@@ -1457,7 +1454,7 @@
         <v>45607</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J11" s="15" t="s">
         <v>13</v>
@@ -1468,10 +1465,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="C12" s="5">
+        <v>6</v>
       </c>
       <c r="D12" s="12">
         <v>45607</v>
@@ -1489,7 +1486,7 @@
         <v>45607</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J12" s="15" t="s">
         <v>13</v>
@@ -1500,10 +1497,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="C13" s="5">
+        <v>6</v>
       </c>
       <c r="D13" s="12">
         <v>45607</v>
@@ -1521,7 +1518,7 @@
         <v>45607</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J13" s="15" t="s">
         <v>13</v>
@@ -1532,10 +1529,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="C14" s="5">
+        <v>6</v>
       </c>
       <c r="D14" s="12">
         <v>45607</v>
@@ -1553,7 +1550,7 @@
         <v>45607</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J14" s="15" t="s">
         <v>13</v>
@@ -1564,10 +1561,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="C15" s="5">
+        <v>6</v>
       </c>
       <c r="D15" s="12">
         <v>45607</v>
@@ -1585,7 +1582,7 @@
         <v>45607</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J15" s="15" t="s">
         <v>13</v>
@@ -1596,10 +1593,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="C16" s="5">
+        <v>6</v>
       </c>
       <c r="D16" s="12">
         <v>45607</v>
@@ -1617,7 +1614,7 @@
         <v>45607</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J16" s="15" t="s">
         <v>13</v>
@@ -1628,10 +1625,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="C17" s="5">
+        <v>6</v>
       </c>
       <c r="D17" s="12">
         <v>45607</v>
@@ -1649,7 +1646,7 @@
         <v>45607</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>13</v>
@@ -1666,10 +1663,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="C18" s="5">
+        <v>6</v>
       </c>
       <c r="D18" s="12">
         <v>45607</v>
@@ -1687,7 +1684,7 @@
         <v>45607</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J18" s="15" t="s">
         <v>13</v>
@@ -1698,10 +1695,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="C19" s="5">
+        <v>6</v>
       </c>
       <c r="D19" s="12">
         <v>45607</v>
@@ -1719,7 +1716,7 @@
         <v>45607</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>13</v>
@@ -1730,10 +1727,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="C20" s="5">
+        <v>6</v>
       </c>
       <c r="D20" s="12">
         <v>45607</v>
@@ -1751,7 +1748,7 @@
         <v>45607</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J20" s="15" t="s">
         <v>13</v>
@@ -1762,10 +1759,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="C21" s="5">
+        <v>6</v>
       </c>
       <c r="D21" s="12">
         <v>45607</v>
@@ -1783,7 +1780,7 @@
         <v>45607</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J21" s="15" t="s">
         <v>13</v>
@@ -1794,10 +1791,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="C22" s="5">
+        <v>6</v>
       </c>
       <c r="D22" s="12">
         <v>45607</v>
@@ -1815,7 +1812,7 @@
         <v>45607</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J22" s="15" t="s">
         <v>13</v>
@@ -1826,10 +1823,10 @@
         <v>5</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="C23" s="5">
+        <v>6</v>
       </c>
       <c r="D23" s="12">
         <v>45607</v>
@@ -1847,7 +1844,7 @@
         <v>45607</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J23" s="15" t="s">
         <v>13</v>
@@ -1858,10 +1855,10 @@
         <v>5</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="C24" s="5">
+        <v>6</v>
       </c>
       <c r="D24" s="12">
         <v>45607</v>
@@ -1879,7 +1876,7 @@
         <v>45607</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J24" s="15" t="s">
         <v>13</v>
@@ -1890,10 +1887,10 @@
         <v>5</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="C25" s="5">
+        <v>6</v>
       </c>
       <c r="D25" s="12">
         <v>45607</v>
@@ -1911,7 +1908,7 @@
         <v>45607</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J25" s="15" t="s">
         <v>13</v>
@@ -1922,10 +1919,10 @@
         <v>5</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="C26" s="5">
+        <v>6</v>
       </c>
       <c r="D26" s="12">
         <v>45607</v>
@@ -1943,7 +1940,7 @@
         <v>45607</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J26" s="15" t="s">
         <v>13</v>
@@ -1954,10 +1951,10 @@
         <v>5</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="C27" s="5">
+        <v>6</v>
       </c>
       <c r="D27" s="12">
         <v>45607</v>
@@ -1975,7 +1972,7 @@
         <v>45607</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J27" s="15" t="s">
         <v>13</v>
@@ -1986,10 +1983,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="C28" s="5">
+        <v>6</v>
       </c>
       <c r="D28" s="12">
         <v>45607</v>
@@ -2007,7 +2004,7 @@
         <v>45607</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J28" s="15" t="s">
         <v>13</v>
@@ -2022,10 +2019,10 @@
         <v>5</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="C29" s="5">
+        <v>6</v>
       </c>
       <c r="D29" s="12">
         <v>45607</v>
@@ -2043,7 +2040,7 @@
         <v>45607</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J29" s="15" t="s">
         <v>13</v>
@@ -2054,10 +2051,10 @@
         <v>5</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="C30" s="5">
+        <v>6</v>
       </c>
       <c r="D30" s="12">
         <v>45607</v>
@@ -2075,7 +2072,7 @@
         <v>45607</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J30" s="15" t="s">
         <v>13</v>
@@ -2086,10 +2083,10 @@
         <v>5</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C31" s="5">
+        <v>6</v>
       </c>
       <c r="D31" s="12">
         <v>45607</v>
@@ -2107,7 +2104,7 @@
         <v>45607</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J31" s="15" t="s">
         <v>13</v>
@@ -2118,10 +2115,10 @@
         <v>5</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C32" s="5">
+        <v>6</v>
       </c>
       <c r="D32" s="12">
         <v>45607</v>
@@ -2139,7 +2136,7 @@
         <v>45607</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J32" s="15" t="s">
         <v>13</v>
@@ -2150,10 +2147,10 @@
         <v>5</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>14</v>
+        <v>26</v>
+      </c>
+      <c r="C33" s="5">
+        <v>6</v>
       </c>
       <c r="D33" s="12">
         <v>45607</v>
@@ -2171,7 +2168,7 @@
         <v>45607</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J33" s="15" t="s">
         <v>13</v>

--- a/Base/Backlog_6.xlsx
+++ b/Base/Backlog_6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6EE72E-D5E2-4277-927B-98EAE5C62DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AE4988-2F8B-42EB-A8EE-467F7FABFCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="SPN" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="27">
   <si>
     <t>Backlog</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Felipe Nascimento</t>
+  </si>
+  <si>
+    <t>Resolvido</t>
   </si>
 </sst>
 </file>
@@ -162,12 +165,18 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -182,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -222,10 +231,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -544,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -599,283 +631,283 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="17">
         <v>2025</v>
       </c>
-      <c r="D2" s="8">
-        <v>6</v>
-      </c>
-      <c r="E2" s="15">
-        <v>45698</v>
-      </c>
-      <c r="F2" s="15">
+      <c r="D2" s="17">
+        <v>6</v>
+      </c>
+      <c r="E2" s="18">
+        <v>45698</v>
+      </c>
+      <c r="F2" s="18">
         <v>45702</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="17">
         <v>323835</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="22">
         <v>45689</v>
       </c>
-      <c r="I2" s="15">
-        <v>45698</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="I2" s="18">
+        <v>45698</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="17">
+        <v>2025</v>
+      </c>
+      <c r="D3" s="17">
+        <v>6</v>
+      </c>
+      <c r="E3" s="18">
+        <v>45698</v>
+      </c>
+      <c r="F3" s="18">
+        <v>45702</v>
+      </c>
+      <c r="G3" s="17">
+        <v>323518</v>
+      </c>
+      <c r="H3" s="22">
+        <v>45689</v>
+      </c>
+      <c r="I3" s="18">
+        <v>45698</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="17">
+        <v>2025</v>
+      </c>
+      <c r="D4" s="17">
+        <v>6</v>
+      </c>
+      <c r="E4" s="18">
+        <v>45698</v>
+      </c>
+      <c r="F4" s="18">
+        <v>45702</v>
+      </c>
+      <c r="G4" s="17">
+        <v>322776</v>
+      </c>
+      <c r="H4" s="22">
+        <v>45689</v>
+      </c>
+      <c r="I4" s="18">
+        <v>45698</v>
+      </c>
+      <c r="J4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K4" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="5" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C5" s="17">
         <v>2025</v>
       </c>
-      <c r="D3" s="8">
-        <v>6</v>
-      </c>
-      <c r="E3" s="15">
-        <v>45698</v>
-      </c>
-      <c r="F3" s="15">
+      <c r="D5" s="17">
+        <v>6</v>
+      </c>
+      <c r="E5" s="18">
+        <v>45698</v>
+      </c>
+      <c r="F5" s="18">
         <v>45702</v>
       </c>
-      <c r="G3" s="8">
-        <v>323518</v>
-      </c>
-      <c r="H3" s="11">
+      <c r="G5" s="17">
+        <v>322970</v>
+      </c>
+      <c r="H5" s="22">
         <v>45689</v>
       </c>
-      <c r="I3" s="15">
-        <v>45698</v>
-      </c>
-      <c r="J3" s="8" t="s">
+      <c r="I5" s="18">
+        <v>45698</v>
+      </c>
+      <c r="J5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K5" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="6" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="13">
+      <c r="B6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="17">
         <v>2025</v>
       </c>
-      <c r="D4" s="8">
-        <v>6</v>
-      </c>
-      <c r="E4" s="15">
-        <v>45698</v>
-      </c>
-      <c r="F4" s="15">
+      <c r="D6" s="17">
+        <v>6</v>
+      </c>
+      <c r="E6" s="18">
+        <v>45698</v>
+      </c>
+      <c r="F6" s="18">
         <v>45702</v>
       </c>
-      <c r="G4" s="8">
-        <v>322776</v>
-      </c>
-      <c r="H4" s="11">
+      <c r="G6" s="17">
+        <v>323566</v>
+      </c>
+      <c r="H6" s="22">
         <v>45689</v>
       </c>
-      <c r="I4" s="15">
-        <v>45698</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="13" t="s">
+      <c r="I6" s="18">
+        <v>45698</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+    <row r="7" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="13">
+      <c r="B7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="17">
         <v>2025</v>
       </c>
-      <c r="D5" s="8">
-        <v>6</v>
-      </c>
-      <c r="E5" s="15">
-        <v>45698</v>
-      </c>
-      <c r="F5" s="15">
+      <c r="D7" s="17">
+        <v>6</v>
+      </c>
+      <c r="E7" s="18">
+        <v>45698</v>
+      </c>
+      <c r="F7" s="18">
         <v>45702</v>
       </c>
-      <c r="G5" s="8">
-        <v>322970</v>
-      </c>
-      <c r="H5" s="11">
+      <c r="G7" s="24">
+        <v>323716</v>
+      </c>
+      <c r="H7" s="25">
         <v>45689</v>
       </c>
-      <c r="I5" s="15">
-        <v>45698</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="13" t="s">
+      <c r="I7" s="18">
+        <v>45698</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+    <row r="8" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="13">
+      <c r="B8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="17">
         <v>2025</v>
       </c>
-      <c r="D6" s="8">
-        <v>6</v>
-      </c>
-      <c r="E6" s="15">
-        <v>45698</v>
-      </c>
-      <c r="F6" s="15">
+      <c r="D8" s="17">
+        <v>6</v>
+      </c>
+      <c r="E8" s="18">
+        <v>45698</v>
+      </c>
+      <c r="F8" s="18">
         <v>45702</v>
       </c>
-      <c r="G6" s="8">
-        <v>323566</v>
-      </c>
-      <c r="H6" s="11">
+      <c r="G8" s="24">
+        <v>323717</v>
+      </c>
+      <c r="H8" s="25">
         <v>45689</v>
       </c>
-      <c r="I6" s="15">
-        <v>45698</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="13" t="s">
+      <c r="I8" s="18">
+        <v>45698</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="13">
-        <v>2025</v>
-      </c>
-      <c r="D7" s="8">
-        <v>6</v>
-      </c>
-      <c r="E7" s="15">
-        <v>45698</v>
-      </c>
-      <c r="F7" s="15">
-        <v>45702</v>
-      </c>
-      <c r="G7" s="5">
-        <v>323716</v>
-      </c>
-      <c r="H7" s="6">
-        <v>45689</v>
-      </c>
-      <c r="I7" s="15">
-        <v>45698</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="13">
-        <v>2025</v>
-      </c>
-      <c r="D8" s="8">
-        <v>6</v>
-      </c>
-      <c r="E8" s="15">
-        <v>45698</v>
-      </c>
-      <c r="F8" s="15">
-        <v>45702</v>
-      </c>
-      <c r="G8" s="5">
-        <v>323717</v>
-      </c>
-      <c r="H8" s="6">
-        <v>45689</v>
-      </c>
-      <c r="I8" s="15">
-        <v>45698</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="17">
         <v>2025</v>
       </c>
-      <c r="D9" s="8">
-        <v>6</v>
-      </c>
-      <c r="E9" s="15">
-        <v>45698</v>
-      </c>
-      <c r="F9" s="15">
+      <c r="D9" s="17">
+        <v>6</v>
+      </c>
+      <c r="E9" s="18">
+        <v>45698</v>
+      </c>
+      <c r="F9" s="18">
         <v>45702</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="24">
         <v>323112</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="25">
         <v>45689</v>
       </c>
-      <c r="I9" s="15">
-        <v>45698</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="13" t="s">
+      <c r="I9" s="18">
+        <v>45698</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1038,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1094,458 +1126,458 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="17">
         <v>2025</v>
       </c>
-      <c r="D2" s="8">
-        <v>6</v>
-      </c>
-      <c r="E2" s="15">
-        <v>45698</v>
-      </c>
-      <c r="F2" s="15">
+      <c r="D2" s="17">
+        <v>6</v>
+      </c>
+      <c r="E2" s="18">
+        <v>45698</v>
+      </c>
+      <c r="F2" s="18">
         <v>45702</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="15">
         <v>322946</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="19">
         <v>45658</v>
       </c>
-      <c r="I2" s="15">
-        <v>45698</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="I2" s="18">
+        <v>45698</v>
+      </c>
+      <c r="J2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="17">
         <v>2025</v>
       </c>
-      <c r="D3" s="8">
-        <v>6</v>
-      </c>
-      <c r="E3" s="15">
-        <v>45698</v>
-      </c>
-      <c r="F3" s="15">
+      <c r="D3" s="17">
+        <v>6</v>
+      </c>
+      <c r="E3" s="18">
+        <v>45698</v>
+      </c>
+      <c r="F3" s="18">
         <v>45702</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="15">
         <v>323235</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="19">
         <v>45689</v>
       </c>
-      <c r="I3" s="15">
-        <v>45698</v>
-      </c>
-      <c r="J3" s="8" t="s">
+      <c r="I3" s="18">
+        <v>45698</v>
+      </c>
+      <c r="J3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="17">
         <v>2025</v>
       </c>
-      <c r="D4" s="8">
-        <v>6</v>
-      </c>
-      <c r="E4" s="15">
-        <v>45698</v>
-      </c>
-      <c r="F4" s="15">
+      <c r="D4" s="17">
+        <v>6</v>
+      </c>
+      <c r="E4" s="18">
+        <v>45698</v>
+      </c>
+      <c r="F4" s="18">
         <v>45702</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="15">
         <v>322764</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="19">
         <v>45658</v>
       </c>
-      <c r="I4" s="15">
-        <v>45698</v>
-      </c>
-      <c r="J4" s="8" t="s">
+      <c r="I4" s="18">
+        <v>45698</v>
+      </c>
+      <c r="J4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="17">
         <v>2025</v>
       </c>
-      <c r="D5" s="8">
-        <v>6</v>
-      </c>
-      <c r="E5" s="15">
-        <v>45698</v>
-      </c>
-      <c r="F5" s="15">
+      <c r="D5" s="17">
+        <v>6</v>
+      </c>
+      <c r="E5" s="18">
+        <v>45698</v>
+      </c>
+      <c r="F5" s="18">
         <v>45702</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="15">
         <v>323204</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="19">
         <v>45658</v>
       </c>
-      <c r="I5" s="15">
-        <v>45698</v>
-      </c>
-      <c r="J5" s="8" t="s">
+      <c r="I5" s="18">
+        <v>45698</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="17">
+        <v>2025</v>
+      </c>
+      <c r="D6" s="17">
+        <v>6</v>
+      </c>
+      <c r="E6" s="18">
+        <v>45698</v>
+      </c>
+      <c r="F6" s="18">
+        <v>45702</v>
+      </c>
+      <c r="G6" s="15">
+        <v>321835</v>
+      </c>
+      <c r="H6" s="19">
+        <v>45658</v>
+      </c>
+      <c r="I6" s="18">
+        <v>45698</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="17">
+        <v>2025</v>
+      </c>
+      <c r="D7" s="17">
+        <v>6</v>
+      </c>
+      <c r="E7" s="18">
+        <v>45698</v>
+      </c>
+      <c r="F7" s="18">
+        <v>45702</v>
+      </c>
+      <c r="G7" s="15">
+        <v>323802</v>
+      </c>
+      <c r="H7" s="19">
+        <v>45689</v>
+      </c>
+      <c r="I7" s="18">
+        <v>45698</v>
+      </c>
+      <c r="J7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K7" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    <row r="8" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="13">
+      <c r="B8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="17">
         <v>2025</v>
       </c>
-      <c r="D6" s="8">
-        <v>6</v>
-      </c>
-      <c r="E6" s="15">
-        <v>45698</v>
-      </c>
-      <c r="F6" s="15">
+      <c r="D8" s="17">
+        <v>6</v>
+      </c>
+      <c r="E8" s="18">
+        <v>45698</v>
+      </c>
+      <c r="F8" s="18">
         <v>45702</v>
       </c>
-      <c r="G6" s="12">
-        <v>321835</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="G8" s="15">
+        <v>322167</v>
+      </c>
+      <c r="H8" s="19">
         <v>45658</v>
       </c>
-      <c r="I6" s="15">
-        <v>45698</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="12" t="s">
+      <c r="I8" s="18">
+        <v>45698</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="13">
-        <v>2025</v>
-      </c>
-      <c r="D7" s="8">
-        <v>6</v>
-      </c>
-      <c r="E7" s="15">
-        <v>45698</v>
-      </c>
-      <c r="F7" s="15">
-        <v>45702</v>
-      </c>
-      <c r="G7" s="12">
-        <v>323802</v>
-      </c>
-      <c r="H7" s="3">
-        <v>45689</v>
-      </c>
-      <c r="I7" s="15">
-        <v>45698</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="13">
-        <v>2025</v>
-      </c>
-      <c r="D8" s="8">
-        <v>6</v>
-      </c>
-      <c r="E8" s="15">
-        <v>45698</v>
-      </c>
-      <c r="F8" s="15">
-        <v>45702</v>
-      </c>
-      <c r="G8" s="12">
-        <v>322167</v>
-      </c>
-      <c r="H8" s="3">
-        <v>45658</v>
-      </c>
-      <c r="I8" s="15">
-        <v>45698</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="17">
         <v>2025</v>
       </c>
-      <c r="D9" s="8">
-        <v>6</v>
-      </c>
-      <c r="E9" s="15">
-        <v>45698</v>
-      </c>
-      <c r="F9" s="15">
+      <c r="D9" s="17">
+        <v>6</v>
+      </c>
+      <c r="E9" s="18">
+        <v>45698</v>
+      </c>
+      <c r="F9" s="18">
         <v>45702</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="15">
         <v>323062</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="19">
         <v>45689</v>
       </c>
-      <c r="I9" s="15">
-        <v>45698</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="12" t="s">
+      <c r="I9" s="18">
+        <v>45698</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="17">
         <v>2025</v>
       </c>
-      <c r="D10" s="8">
-        <v>6</v>
-      </c>
-      <c r="E10" s="15">
-        <v>45698</v>
-      </c>
-      <c r="F10" s="15">
+      <c r="D10" s="17">
+        <v>6</v>
+      </c>
+      <c r="E10" s="18">
+        <v>45698</v>
+      </c>
+      <c r="F10" s="18">
         <v>45702</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="15">
         <v>323208</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="19">
         <v>45689</v>
       </c>
-      <c r="I10" s="15">
-        <v>45698</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="12" t="s">
+      <c r="I10" s="18">
+        <v>45698</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="17">
         <v>2025</v>
       </c>
-      <c r="D11" s="8">
-        <v>6</v>
-      </c>
-      <c r="E11" s="15">
-        <v>45698</v>
-      </c>
-      <c r="F11" s="15">
+      <c r="D11" s="17">
+        <v>6</v>
+      </c>
+      <c r="E11" s="18">
+        <v>45698</v>
+      </c>
+      <c r="F11" s="18">
         <v>45702</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="15">
         <v>322945</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="19">
         <v>45689</v>
       </c>
-      <c r="I11" s="15">
-        <v>45698</v>
-      </c>
-      <c r="J11" s="8" t="s">
+      <c r="I11" s="18">
+        <v>45698</v>
+      </c>
+      <c r="J11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="17">
         <v>2025</v>
       </c>
-      <c r="D12" s="8">
-        <v>6</v>
-      </c>
-      <c r="E12" s="15">
-        <v>45698</v>
-      </c>
-      <c r="F12" s="15">
+      <c r="D12" s="17">
+        <v>6</v>
+      </c>
+      <c r="E12" s="18">
+        <v>45698</v>
+      </c>
+      <c r="F12" s="18">
         <v>45702</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="15">
         <v>323224</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="19">
         <v>45689</v>
       </c>
-      <c r="I12" s="15">
-        <v>45698</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="12" t="s">
+      <c r="I12" s="18">
+        <v>45698</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="17">
         <v>2025</v>
       </c>
-      <c r="D13" s="8">
-        <v>6</v>
-      </c>
-      <c r="E13" s="15">
-        <v>45698</v>
-      </c>
-      <c r="F13" s="15">
+      <c r="D13" s="17">
+        <v>6</v>
+      </c>
+      <c r="E13" s="18">
+        <v>45698</v>
+      </c>
+      <c r="F13" s="18">
         <v>45702</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="15">
         <v>323501</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="19">
         <v>45689</v>
       </c>
-      <c r="I13" s="15">
-        <v>45698</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="12" t="s">
+      <c r="I13" s="18">
+        <v>45698</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="17">
         <v>2025</v>
       </c>
-      <c r="D14" s="8">
-        <v>6</v>
-      </c>
-      <c r="E14" s="15">
-        <v>45698</v>
-      </c>
-      <c r="F14" s="15">
+      <c r="D14" s="17">
+        <v>6</v>
+      </c>
+      <c r="E14" s="18">
+        <v>45698</v>
+      </c>
+      <c r="F14" s="18">
         <v>45702</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="15">
         <v>323513</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="19">
         <v>45689</v>
       </c>
-      <c r="I14" s="15">
-        <v>45698</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="12" t="s">
+      <c r="I14" s="18">
+        <v>45698</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="15" t="s">
         <v>11</v>
       </c>
     </row>
